--- a/temp/pages/StructureDefinition-cbs-birthsex.xlsx
+++ b/temp/pages/StructureDefinition-cbs-birthsex.xlsx
@@ -137,7 +137,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>Case Based Surveillance Birth Sex Extension</t>
+    <t>Case Based Surveillance Sex Assigned at Birth Extension</t>
   </si>
   <si>
     <t>A code classifying the person's sex assigned at birth.</t>
@@ -422,7 +422,7 @@
     <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="39.8828125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="50.86328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
